--- a/Software/BASIC/Basic Keywords.xlsx
+++ b/Software/BASIC/Basic Keywords.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Software\BASIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8EDBC1-82B0-4718-94AD-3DAACB17E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB390E0-9569-4F73-B773-16872B272787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E3235A9-87D0-4FD8-AA26-79EA35C0B4E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>DEF</t>
     <phoneticPr fontId="1"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DLTKEY? ELTKEY?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>END</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,10 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INPUT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -286,10 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JEYX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -374,10 +362,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Part of IF THEN. Ex.: IF cond THEN s1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Part of a FOR loop. Ex.: FOR v=x TO y</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -391,6 +375,26 @@
   </si>
   <si>
     <t>Sets memory location addr to x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DLTKEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KEYX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IF … THEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ex.: IF cond THEN s1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ex.: IF cond THEN s1 ELSE s2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -758,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B907D-4463-4313-88A7-0233561626D3}">
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -779,16 +783,16 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -796,35 +800,35 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -832,13 +836,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -846,10 +847,13 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -857,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -865,16 +869,16 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -882,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -893,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -907,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -915,21 +919,21 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -937,10 +941,10 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -948,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -959,101 +963,104 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -1061,35 +1068,35 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -1097,24 +1104,16 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
       </c>
       <c r="H29" s="1" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
